--- a/PANAMÁ/Delitos/Informe-Estadístico-de-Delitos-Sexuales-2017-2020.xlsx
+++ b/PANAMÁ/Delitos/Informe-Estadístico-de-Delitos-Sexuales-2017-2020.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\PANAMÁ\Delitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A18BDD-5811-487A-A37A-EF53E7C5C848}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579B481C-C447-4BF5-A36F-FE79825855B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EC08DF0F-61B3-45E4-96C5-7D2F4BA45B77}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{EC08DF0F-61B3-45E4-96C5-7D2F4BA45B77}"/>
   </bookViews>
   <sheets>
-    <sheet name="Delitos Sexuales" sheetId="3" r:id="rId1"/>
-    <sheet name="(Original) Delitos Sexuales" sheetId="1" r:id="rId2"/>
+    <sheet name="(Original) Delitos Sexuales" sheetId="1" r:id="rId1"/>
+    <sheet name="Delitos Sexuales" sheetId="3" r:id="rId2"/>
     <sheet name="Fuente" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -919,13 +919,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -954,6 +947,13 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1080,7 +1080,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01D67720-40E4-4D0C-BAB7-A9972BB7A12E}" name="Delitos_Sexuales" displayName="Delitos_Sexuales" ref="A1:H45" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01D67720-40E4-4D0C-BAB7-A9972BB7A12E}" name="Delitos_Sexuales" displayName="Delitos_Sexuales" ref="A1:H45" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="A1:H45" xr:uid="{6296BE1B-A9BE-4B56-B641-9FD0606BE5E7}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{530B77C9-7360-459C-BBC2-CF060892F500}" name="Fecha" dataDxfId="7"/>
@@ -1392,1188 +1392,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC1EF7B-BBFE-480C-9116-E3ED34EA8069}">
-  <dimension ref="A1:I45"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="67"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="68">
-        <v>42736</v>
-      </c>
-      <c r="B2" s="69">
-        <v>395</v>
-      </c>
-      <c r="C2" s="69">
-        <v>198</v>
-      </c>
-      <c r="D2" s="70">
-        <v>7</v>
-      </c>
-      <c r="E2" s="70">
-        <v>13</v>
-      </c>
-      <c r="F2" s="69">
-        <v>128</v>
-      </c>
-      <c r="G2" s="70">
-        <v>47</v>
-      </c>
-      <c r="H2" s="71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="68">
-        <v>42767</v>
-      </c>
-      <c r="B3" s="69">
-        <v>305</v>
-      </c>
-      <c r="C3" s="69">
-        <v>163</v>
-      </c>
-      <c r="D3" s="70">
-        <v>5</v>
-      </c>
-      <c r="E3" s="72">
-        <v>11</v>
-      </c>
-      <c r="F3" s="72">
-        <v>88</v>
-      </c>
-      <c r="G3" s="72">
-        <v>33</v>
-      </c>
-      <c r="H3" s="71">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="68">
-        <v>42795</v>
-      </c>
-      <c r="B4" s="69">
-        <v>389</v>
-      </c>
-      <c r="C4" s="72">
-        <v>192</v>
-      </c>
-      <c r="D4" s="73">
-        <v>8</v>
-      </c>
-      <c r="E4" s="70">
-        <v>37</v>
-      </c>
-      <c r="F4" s="72">
-        <v>114</v>
-      </c>
-      <c r="G4" s="70">
-        <v>35</v>
-      </c>
-      <c r="H4" s="74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="68">
-        <v>42826</v>
-      </c>
-      <c r="B5" s="69">
-        <v>479</v>
-      </c>
-      <c r="C5" s="69">
-        <v>237</v>
-      </c>
-      <c r="D5" s="70">
-        <v>4</v>
-      </c>
-      <c r="E5" s="70">
-        <v>29</v>
-      </c>
-      <c r="F5" s="69">
-        <v>154</v>
-      </c>
-      <c r="G5" s="70">
-        <v>54</v>
-      </c>
-      <c r="H5" s="71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="68">
-        <v>42856</v>
-      </c>
-      <c r="B6" s="69">
-        <v>525</v>
-      </c>
-      <c r="C6" s="72">
-        <v>261</v>
-      </c>
-      <c r="D6" s="73">
-        <v>9</v>
-      </c>
-      <c r="E6" s="70">
-        <v>33</v>
-      </c>
-      <c r="F6" s="72">
-        <v>154</v>
-      </c>
-      <c r="G6" s="70">
-        <v>61</v>
-      </c>
-      <c r="H6" s="74">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="68">
-        <v>42887</v>
-      </c>
-      <c r="B7" s="69">
-        <v>534</v>
-      </c>
-      <c r="C7" s="69">
-        <v>262</v>
-      </c>
-      <c r="D7" s="70">
-        <v>8</v>
-      </c>
-      <c r="E7" s="72">
-        <v>21</v>
-      </c>
-      <c r="F7" s="69">
-        <v>184</v>
-      </c>
-      <c r="G7" s="72">
-        <v>49</v>
-      </c>
-      <c r="H7" s="75">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="68">
-        <v>42917</v>
-      </c>
-      <c r="B8" s="69">
-        <v>546</v>
-      </c>
-      <c r="C8" s="69">
-        <v>241</v>
-      </c>
-      <c r="D8" s="72">
-        <v>10</v>
-      </c>
-      <c r="E8" s="72">
-        <v>10</v>
-      </c>
-      <c r="F8" s="69">
-        <v>220</v>
-      </c>
-      <c r="G8" s="72">
-        <v>63</v>
-      </c>
-      <c r="H8" s="71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="68">
-        <v>42948</v>
-      </c>
-      <c r="B9" s="69">
-        <v>675</v>
-      </c>
-      <c r="C9" s="72">
-        <v>372</v>
-      </c>
-      <c r="D9" s="70">
-        <v>10</v>
-      </c>
-      <c r="E9" s="70">
-        <v>24</v>
-      </c>
-      <c r="F9" s="72">
-        <v>215</v>
-      </c>
-      <c r="G9" s="70">
-        <v>50</v>
-      </c>
-      <c r="H9" s="74">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="68">
-        <v>42979</v>
-      </c>
-      <c r="B10" s="69">
-        <v>539</v>
-      </c>
-      <c r="C10" s="72">
-        <v>285</v>
-      </c>
-      <c r="D10" s="70">
-        <v>11</v>
-      </c>
-      <c r="E10" s="70">
-        <v>19</v>
-      </c>
-      <c r="F10" s="72">
-        <v>166</v>
-      </c>
-      <c r="G10" s="70">
-        <v>57</v>
-      </c>
-      <c r="H10" s="74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="68">
-        <v>43009</v>
-      </c>
-      <c r="B11" s="69">
-        <v>518</v>
-      </c>
-      <c r="C11" s="69">
-        <v>253</v>
-      </c>
-      <c r="D11" s="72">
-        <v>13</v>
-      </c>
-      <c r="E11" s="72">
-        <v>19</v>
-      </c>
-      <c r="F11" s="69">
-        <v>152</v>
-      </c>
-      <c r="G11" s="72">
-        <v>78</v>
-      </c>
-      <c r="H11" s="71">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="68">
-        <v>43040</v>
-      </c>
-      <c r="B12" s="69">
-        <v>419</v>
-      </c>
-      <c r="C12" s="72">
-        <v>219</v>
-      </c>
-      <c r="D12" s="73">
-        <v>6</v>
-      </c>
-      <c r="E12" s="70">
-        <v>30</v>
-      </c>
-      <c r="F12" s="72">
-        <v>117</v>
-      </c>
-      <c r="G12" s="70">
-        <v>46</v>
-      </c>
-      <c r="H12" s="74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="68">
-        <v>43070</v>
-      </c>
-      <c r="B13" s="69">
-        <v>379</v>
-      </c>
-      <c r="C13" s="69">
-        <v>202</v>
-      </c>
-      <c r="D13" s="72">
-        <v>10</v>
-      </c>
-      <c r="E13" s="72">
-        <v>19</v>
-      </c>
-      <c r="F13" s="69">
-        <v>108</v>
-      </c>
-      <c r="G13" s="72">
-        <v>37</v>
-      </c>
-      <c r="H13" s="71">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="68">
-        <v>43101</v>
-      </c>
-      <c r="B14" s="72">
-        <v>471</v>
-      </c>
-      <c r="C14" s="70">
-        <v>262</v>
-      </c>
-      <c r="D14" s="73">
-        <v>9</v>
-      </c>
-      <c r="E14" s="73"/>
-      <c r="F14" s="70">
-        <v>130</v>
-      </c>
-      <c r="G14" s="73">
-        <v>65</v>
-      </c>
-      <c r="H14" s="74">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="68">
-        <v>43132</v>
-      </c>
-      <c r="B15" s="72">
-        <v>359</v>
-      </c>
-      <c r="C15" s="76">
-        <v>171</v>
-      </c>
-      <c r="D15" s="70">
-        <v>11</v>
-      </c>
-      <c r="E15" s="73">
-        <v>2</v>
-      </c>
-      <c r="F15" s="72">
-        <v>110</v>
-      </c>
-      <c r="G15" s="70">
-        <v>64</v>
-      </c>
-      <c r="H15" s="74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="68">
-        <v>43160</v>
-      </c>
-      <c r="B16" s="72">
-        <v>510</v>
-      </c>
-      <c r="C16" s="70">
-        <v>224</v>
-      </c>
-      <c r="D16" s="73">
-        <v>19</v>
-      </c>
-      <c r="E16" s="73">
-        <v>1</v>
-      </c>
-      <c r="F16" s="70">
-        <v>192</v>
-      </c>
-      <c r="G16" s="73">
-        <v>68</v>
-      </c>
-      <c r="H16" s="74">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="68">
-        <v>43191</v>
-      </c>
-      <c r="B17" s="72">
-        <v>550</v>
-      </c>
-      <c r="C17" s="72">
-        <v>229</v>
-      </c>
-      <c r="D17" s="70">
-        <v>21</v>
-      </c>
-      <c r="E17" s="77"/>
-      <c r="F17" s="72">
-        <v>210</v>
-      </c>
-      <c r="G17" s="70">
-        <v>82</v>
-      </c>
-      <c r="H17" s="74">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="68">
-        <v>43221</v>
-      </c>
-      <c r="B18" s="72">
-        <v>556</v>
-      </c>
-      <c r="C18" s="72">
-        <v>202</v>
-      </c>
-      <c r="D18" s="70">
-        <v>30</v>
-      </c>
-      <c r="E18" s="73">
-        <v>1</v>
-      </c>
-      <c r="F18" s="72">
-        <v>217</v>
-      </c>
-      <c r="G18" s="72">
-        <v>102</v>
-      </c>
-      <c r="H18" s="74">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="68">
-        <v>43252</v>
-      </c>
-      <c r="B19" s="72">
-        <v>474</v>
-      </c>
-      <c r="C19" s="72">
-        <v>223</v>
-      </c>
-      <c r="D19" s="70">
-        <v>14</v>
-      </c>
-      <c r="E19" s="77"/>
-      <c r="F19" s="72">
-        <v>172</v>
-      </c>
-      <c r="G19" s="70">
-        <v>65</v>
-      </c>
-      <c r="H19" s="78"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="68">
-        <v>43282</v>
-      </c>
-      <c r="B20" s="72">
-        <v>524</v>
-      </c>
-      <c r="C20" s="72">
-        <v>197</v>
-      </c>
-      <c r="D20" s="70">
-        <v>14</v>
-      </c>
-      <c r="E20" s="73">
-        <v>5</v>
-      </c>
-      <c r="F20" s="72">
-        <v>214</v>
-      </c>
-      <c r="G20" s="70">
-        <v>92</v>
-      </c>
-      <c r="H20" s="74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="68">
-        <v>43313</v>
-      </c>
-      <c r="B21" s="72">
-        <v>552</v>
-      </c>
-      <c r="C21" s="70">
-        <v>203</v>
-      </c>
-      <c r="D21" s="73">
-        <v>19</v>
-      </c>
-      <c r="E21" s="73">
-        <v>3</v>
-      </c>
-      <c r="F21" s="70">
-        <v>233</v>
-      </c>
-      <c r="G21" s="73">
-        <v>93</v>
-      </c>
-      <c r="H21" s="74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="68">
-        <v>43344</v>
-      </c>
-      <c r="B22" s="72">
-        <v>466</v>
-      </c>
-      <c r="C22" s="72">
-        <v>193</v>
-      </c>
-      <c r="D22" s="70">
-        <v>14</v>
-      </c>
-      <c r="E22" s="73">
-        <v>1</v>
-      </c>
-      <c r="F22" s="72">
-        <v>184</v>
-      </c>
-      <c r="G22" s="70">
-        <v>73</v>
-      </c>
-      <c r="H22" s="74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="68">
-        <v>43374</v>
-      </c>
-      <c r="B23" s="72">
-        <v>559</v>
-      </c>
-      <c r="C23" s="70">
-        <v>251</v>
-      </c>
-      <c r="D23" s="73">
-        <v>23</v>
-      </c>
-      <c r="E23" s="73">
-        <v>1</v>
-      </c>
-      <c r="F23" s="70">
-        <v>197</v>
-      </c>
-      <c r="G23" s="73">
-        <v>84</v>
-      </c>
-      <c r="H23" s="74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="68">
-        <v>43405</v>
-      </c>
-      <c r="B24" s="72">
-        <v>465</v>
-      </c>
-      <c r="C24" s="72">
-        <v>194</v>
-      </c>
-      <c r="D24" s="70">
-        <v>28</v>
-      </c>
-      <c r="E24" s="73">
-        <v>3</v>
-      </c>
-      <c r="F24" s="72">
-        <v>151</v>
-      </c>
-      <c r="G24" s="70">
-        <v>86</v>
-      </c>
-      <c r="H24" s="74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="68">
-        <v>43435</v>
-      </c>
-      <c r="B25" s="72">
-        <v>388</v>
-      </c>
-      <c r="C25" s="72">
-        <v>166</v>
-      </c>
-      <c r="D25" s="70">
-        <v>12</v>
-      </c>
-      <c r="E25" s="73">
-        <v>2</v>
-      </c>
-      <c r="F25" s="72">
-        <v>146</v>
-      </c>
-      <c r="G25" s="70">
-        <v>60</v>
-      </c>
-      <c r="H25" s="74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="68">
-        <v>43466</v>
-      </c>
-      <c r="B26" s="79">
-        <v>507</v>
-      </c>
-      <c r="C26" s="79">
-        <v>230</v>
-      </c>
-      <c r="D26" s="80">
-        <v>19</v>
-      </c>
-      <c r="E26" s="81">
-        <v>5</v>
-      </c>
-      <c r="F26" s="79">
-        <v>189</v>
-      </c>
-      <c r="G26" s="80">
-        <v>60</v>
-      </c>
-      <c r="H26" s="82">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="68">
-        <v>43497</v>
-      </c>
-      <c r="B27" s="79">
-        <v>488</v>
-      </c>
-      <c r="C27" s="79">
-        <v>198</v>
-      </c>
-      <c r="D27" s="80">
-        <v>25</v>
-      </c>
-      <c r="E27" s="81">
-        <v>5</v>
-      </c>
-      <c r="F27" s="79">
-        <v>173</v>
-      </c>
-      <c r="G27" s="80">
-        <v>84</v>
-      </c>
-      <c r="H27" s="82">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="68">
-        <v>43525</v>
-      </c>
-      <c r="B28" s="79">
-        <v>470</v>
-      </c>
-      <c r="C28" s="79">
-        <v>204</v>
-      </c>
-      <c r="D28" s="80">
-        <v>21</v>
-      </c>
-      <c r="E28" s="81">
-        <v>1</v>
-      </c>
-      <c r="F28" s="79">
-        <v>169</v>
-      </c>
-      <c r="G28" s="80">
-        <v>71</v>
-      </c>
-      <c r="H28" s="82">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="68">
-        <v>43556</v>
-      </c>
-      <c r="B29" s="79">
-        <v>512</v>
-      </c>
-      <c r="C29" s="79">
-        <v>206</v>
-      </c>
-      <c r="D29" s="80">
-        <v>22</v>
-      </c>
-      <c r="E29" s="81">
-        <v>4</v>
-      </c>
-      <c r="F29" s="79">
-        <v>196</v>
-      </c>
-      <c r="G29" s="80">
-        <v>81</v>
-      </c>
-      <c r="H29" s="82">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="68">
-        <v>43586</v>
-      </c>
-      <c r="B30" s="79">
-        <v>553</v>
-      </c>
-      <c r="C30" s="79">
-        <v>212</v>
-      </c>
-      <c r="D30" s="80">
-        <v>31</v>
-      </c>
-      <c r="E30" s="81">
-        <v>4</v>
-      </c>
-      <c r="F30" s="79">
-        <v>210</v>
-      </c>
-      <c r="G30" s="80">
-        <v>93</v>
-      </c>
-      <c r="H30" s="82">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="68">
-        <v>43617</v>
-      </c>
-      <c r="B31" s="79">
-        <v>528</v>
-      </c>
-      <c r="C31" s="79">
-        <v>213</v>
-      </c>
-      <c r="D31" s="80">
-        <v>24</v>
-      </c>
-      <c r="E31" s="81">
-        <v>1</v>
-      </c>
-      <c r="F31" s="79">
-        <v>186</v>
-      </c>
-      <c r="G31" s="79">
-        <v>101</v>
-      </c>
-      <c r="H31" s="82">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="68">
-        <v>43647</v>
-      </c>
-      <c r="B32" s="79">
-        <v>626</v>
-      </c>
-      <c r="C32" s="79">
-        <v>259</v>
-      </c>
-      <c r="D32" s="80">
-        <v>39</v>
-      </c>
-      <c r="E32" s="81">
-        <v>1</v>
-      </c>
-      <c r="F32" s="79">
-        <v>212</v>
-      </c>
-      <c r="G32" s="79">
-        <v>109</v>
-      </c>
-      <c r="H32" s="82">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="68">
-        <v>43678</v>
-      </c>
-      <c r="B33" s="79">
-        <v>602</v>
-      </c>
-      <c r="C33" s="79">
-        <v>225</v>
-      </c>
-      <c r="D33" s="80">
-        <v>20</v>
-      </c>
-      <c r="E33" s="77"/>
-      <c r="F33" s="79">
-        <v>252</v>
-      </c>
-      <c r="G33" s="79">
-        <v>102</v>
-      </c>
-      <c r="H33" s="82">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="68">
-        <v>43709</v>
-      </c>
-      <c r="B34" s="79">
-        <v>568</v>
-      </c>
-      <c r="C34" s="79">
-        <v>232</v>
-      </c>
-      <c r="D34" s="80">
-        <v>20</v>
-      </c>
-      <c r="E34" s="81">
-        <v>1</v>
-      </c>
-      <c r="F34" s="79">
-        <v>230</v>
-      </c>
-      <c r="G34" s="80">
-        <v>81</v>
-      </c>
-      <c r="H34" s="82">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="68">
-        <v>43739</v>
-      </c>
-      <c r="B35" s="79">
-        <v>683</v>
-      </c>
-      <c r="C35" s="79">
-        <v>267</v>
-      </c>
-      <c r="D35" s="80">
-        <v>31</v>
-      </c>
-      <c r="E35" s="81">
-        <v>2</v>
-      </c>
-      <c r="F35" s="79">
-        <v>251</v>
-      </c>
-      <c r="G35" s="79">
-        <v>129</v>
-      </c>
-      <c r="H35" s="82">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="68">
-        <v>43770</v>
-      </c>
-      <c r="B36" s="79">
-        <v>537</v>
-      </c>
-      <c r="C36" s="79">
-        <v>212</v>
-      </c>
-      <c r="D36" s="80">
-        <v>35</v>
-      </c>
-      <c r="E36" s="77">
-        <v>0</v>
-      </c>
-      <c r="F36" s="79">
-        <v>181</v>
-      </c>
-      <c r="G36" s="79">
-        <v>107</v>
-      </c>
-      <c r="H36" s="82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="68">
-        <v>43800</v>
-      </c>
-      <c r="B37" s="79">
-        <v>526</v>
-      </c>
-      <c r="C37" s="79">
-        <v>202</v>
-      </c>
-      <c r="D37" s="80">
-        <v>24</v>
-      </c>
-      <c r="E37" s="81">
-        <v>1</v>
-      </c>
-      <c r="F37" s="79">
-        <v>212</v>
-      </c>
-      <c r="G37" s="80">
-        <v>82</v>
-      </c>
-      <c r="H37" s="82">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="68">
-        <v>43831</v>
-      </c>
-      <c r="B38" s="79">
-        <v>564</v>
-      </c>
-      <c r="C38" s="79">
-        <v>210</v>
-      </c>
-      <c r="D38" s="80">
-        <v>19</v>
-      </c>
-      <c r="E38" s="81">
-        <v>2</v>
-      </c>
-      <c r="F38" s="79">
-        <v>236</v>
-      </c>
-      <c r="G38" s="80">
-        <v>94</v>
-      </c>
-      <c r="H38" s="82">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="68">
-        <v>43862</v>
-      </c>
-      <c r="B39" s="79">
-        <v>481</v>
-      </c>
-      <c r="C39" s="79">
-        <v>189</v>
-      </c>
-      <c r="D39" s="81">
-        <v>19</v>
-      </c>
-      <c r="E39" s="77"/>
-      <c r="F39" s="79">
-        <v>174</v>
-      </c>
-      <c r="G39" s="81">
-        <v>95</v>
-      </c>
-      <c r="H39" s="82">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="68">
-        <v>43891</v>
-      </c>
-      <c r="B40" s="79">
-        <v>358</v>
-      </c>
-      <c r="C40" s="79">
-        <v>153</v>
-      </c>
-      <c r="D40" s="81">
-        <v>13</v>
-      </c>
-      <c r="E40" s="81">
-        <v>1</v>
-      </c>
-      <c r="F40" s="79">
-        <v>131</v>
-      </c>
-      <c r="G40" s="81">
-        <v>59</v>
-      </c>
-      <c r="H40" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="68">
-        <v>43922</v>
-      </c>
-      <c r="B41" s="79">
-        <v>140</v>
-      </c>
-      <c r="C41" s="81">
-        <v>53</v>
-      </c>
-      <c r="D41" s="81">
-        <v>4</v>
-      </c>
-      <c r="E41" s="81">
-        <v>1</v>
-      </c>
-      <c r="F41" s="81">
-        <v>50</v>
-      </c>
-      <c r="G41" s="81">
-        <v>32</v>
-      </c>
-      <c r="H41" s="78"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="68">
-        <v>43952</v>
-      </c>
-      <c r="B42" s="79">
-        <v>283</v>
-      </c>
-      <c r="C42" s="79">
-        <v>115</v>
-      </c>
-      <c r="D42" s="81">
-        <v>11</v>
-      </c>
-      <c r="E42" s="77"/>
-      <c r="F42" s="79">
-        <v>103</v>
-      </c>
-      <c r="G42" s="81">
-        <v>52</v>
-      </c>
-      <c r="H42" s="82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="68">
-        <v>43983</v>
-      </c>
-      <c r="B43" s="79">
-        <v>424</v>
-      </c>
-      <c r="C43" s="79">
-        <v>150</v>
-      </c>
-      <c r="D43" s="81">
-        <v>14</v>
-      </c>
-      <c r="E43" s="81">
-        <v>2</v>
-      </c>
-      <c r="F43" s="79">
-        <v>182</v>
-      </c>
-      <c r="G43" s="81">
-        <v>73</v>
-      </c>
-      <c r="H43" s="82">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="68">
-        <v>44013</v>
-      </c>
-      <c r="B44" s="79">
-        <v>477</v>
-      </c>
-      <c r="C44" s="79">
-        <v>176</v>
-      </c>
-      <c r="D44" s="81">
-        <v>18</v>
-      </c>
-      <c r="E44" s="81">
-        <v>3</v>
-      </c>
-      <c r="F44" s="79">
-        <v>197</v>
-      </c>
-      <c r="G44" s="81">
-        <v>82</v>
-      </c>
-      <c r="H44" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="83">
-        <v>44044</v>
-      </c>
-      <c r="B45" s="84">
-        <v>438</v>
-      </c>
-      <c r="C45" s="85">
-        <v>223</v>
-      </c>
-      <c r="D45" s="86">
-        <v>21</v>
-      </c>
-      <c r="E45" s="87">
-        <v>1</v>
-      </c>
-      <c r="F45" s="85">
-        <v>112</v>
-      </c>
-      <c r="G45" s="86">
-        <v>79</v>
-      </c>
-      <c r="H45" s="88">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C1CB13-9956-4CB8-9335-6472AA108E30}">
   <dimension ref="A1:AZ8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AM2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BA1" sqref="BA1"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3848,6 +2674,1180 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC1EF7B-BBFE-480C-9116-E3ED34EA8069}">
+  <dimension ref="A1:I45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="67"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="68">
+        <v>42736</v>
+      </c>
+      <c r="B2" s="69">
+        <v>395</v>
+      </c>
+      <c r="C2" s="69">
+        <v>198</v>
+      </c>
+      <c r="D2" s="70">
+        <v>7</v>
+      </c>
+      <c r="E2" s="70">
+        <v>13</v>
+      </c>
+      <c r="F2" s="69">
+        <v>128</v>
+      </c>
+      <c r="G2" s="70">
+        <v>47</v>
+      </c>
+      <c r="H2" s="71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="68">
+        <v>42767</v>
+      </c>
+      <c r="B3" s="69">
+        <v>305</v>
+      </c>
+      <c r="C3" s="69">
+        <v>163</v>
+      </c>
+      <c r="D3" s="70">
+        <v>5</v>
+      </c>
+      <c r="E3" s="72">
+        <v>11</v>
+      </c>
+      <c r="F3" s="72">
+        <v>88</v>
+      </c>
+      <c r="G3" s="72">
+        <v>33</v>
+      </c>
+      <c r="H3" s="71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="68">
+        <v>42795</v>
+      </c>
+      <c r="B4" s="69">
+        <v>389</v>
+      </c>
+      <c r="C4" s="72">
+        <v>192</v>
+      </c>
+      <c r="D4" s="73">
+        <v>8</v>
+      </c>
+      <c r="E4" s="70">
+        <v>37</v>
+      </c>
+      <c r="F4" s="72">
+        <v>114</v>
+      </c>
+      <c r="G4" s="70">
+        <v>35</v>
+      </c>
+      <c r="H4" s="74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="68">
+        <v>42826</v>
+      </c>
+      <c r="B5" s="69">
+        <v>479</v>
+      </c>
+      <c r="C5" s="69">
+        <v>237</v>
+      </c>
+      <c r="D5" s="70">
+        <v>4</v>
+      </c>
+      <c r="E5" s="70">
+        <v>29</v>
+      </c>
+      <c r="F5" s="69">
+        <v>154</v>
+      </c>
+      <c r="G5" s="70">
+        <v>54</v>
+      </c>
+      <c r="H5" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="68">
+        <v>42856</v>
+      </c>
+      <c r="B6" s="69">
+        <v>525</v>
+      </c>
+      <c r="C6" s="72">
+        <v>261</v>
+      </c>
+      <c r="D6" s="73">
+        <v>9</v>
+      </c>
+      <c r="E6" s="70">
+        <v>33</v>
+      </c>
+      <c r="F6" s="72">
+        <v>154</v>
+      </c>
+      <c r="G6" s="70">
+        <v>61</v>
+      </c>
+      <c r="H6" s="74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="68">
+        <v>42887</v>
+      </c>
+      <c r="B7" s="69">
+        <v>534</v>
+      </c>
+      <c r="C7" s="69">
+        <v>262</v>
+      </c>
+      <c r="D7" s="70">
+        <v>8</v>
+      </c>
+      <c r="E7" s="72">
+        <v>21</v>
+      </c>
+      <c r="F7" s="69">
+        <v>184</v>
+      </c>
+      <c r="G7" s="72">
+        <v>49</v>
+      </c>
+      <c r="H7" s="75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="68">
+        <v>42917</v>
+      </c>
+      <c r="B8" s="69">
+        <v>546</v>
+      </c>
+      <c r="C8" s="69">
+        <v>241</v>
+      </c>
+      <c r="D8" s="72">
+        <v>10</v>
+      </c>
+      <c r="E8" s="72">
+        <v>10</v>
+      </c>
+      <c r="F8" s="69">
+        <v>220</v>
+      </c>
+      <c r="G8" s="72">
+        <v>63</v>
+      </c>
+      <c r="H8" s="71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="68">
+        <v>42948</v>
+      </c>
+      <c r="B9" s="69">
+        <v>675</v>
+      </c>
+      <c r="C9" s="72">
+        <v>372</v>
+      </c>
+      <c r="D9" s="70">
+        <v>10</v>
+      </c>
+      <c r="E9" s="70">
+        <v>24</v>
+      </c>
+      <c r="F9" s="72">
+        <v>215</v>
+      </c>
+      <c r="G9" s="70">
+        <v>50</v>
+      </c>
+      <c r="H9" s="74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="68">
+        <v>42979</v>
+      </c>
+      <c r="B10" s="69">
+        <v>539</v>
+      </c>
+      <c r="C10" s="72">
+        <v>285</v>
+      </c>
+      <c r="D10" s="70">
+        <v>11</v>
+      </c>
+      <c r="E10" s="70">
+        <v>19</v>
+      </c>
+      <c r="F10" s="72">
+        <v>166</v>
+      </c>
+      <c r="G10" s="70">
+        <v>57</v>
+      </c>
+      <c r="H10" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="68">
+        <v>43009</v>
+      </c>
+      <c r="B11" s="69">
+        <v>518</v>
+      </c>
+      <c r="C11" s="69">
+        <v>253</v>
+      </c>
+      <c r="D11" s="72">
+        <v>13</v>
+      </c>
+      <c r="E11" s="72">
+        <v>19</v>
+      </c>
+      <c r="F11" s="69">
+        <v>152</v>
+      </c>
+      <c r="G11" s="72">
+        <v>78</v>
+      </c>
+      <c r="H11" s="71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="68">
+        <v>43040</v>
+      </c>
+      <c r="B12" s="69">
+        <v>419</v>
+      </c>
+      <c r="C12" s="72">
+        <v>219</v>
+      </c>
+      <c r="D12" s="73">
+        <v>6</v>
+      </c>
+      <c r="E12" s="70">
+        <v>30</v>
+      </c>
+      <c r="F12" s="72">
+        <v>117</v>
+      </c>
+      <c r="G12" s="70">
+        <v>46</v>
+      </c>
+      <c r="H12" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="68">
+        <v>43070</v>
+      </c>
+      <c r="B13" s="69">
+        <v>379</v>
+      </c>
+      <c r="C13" s="69">
+        <v>202</v>
+      </c>
+      <c r="D13" s="72">
+        <v>10</v>
+      </c>
+      <c r="E13" s="72">
+        <v>19</v>
+      </c>
+      <c r="F13" s="69">
+        <v>108</v>
+      </c>
+      <c r="G13" s="72">
+        <v>37</v>
+      </c>
+      <c r="H13" s="71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="68">
+        <v>43101</v>
+      </c>
+      <c r="B14" s="72">
+        <v>471</v>
+      </c>
+      <c r="C14" s="70">
+        <v>262</v>
+      </c>
+      <c r="D14" s="73">
+        <v>9</v>
+      </c>
+      <c r="E14" s="73"/>
+      <c r="F14" s="70">
+        <v>130</v>
+      </c>
+      <c r="G14" s="73">
+        <v>65</v>
+      </c>
+      <c r="H14" s="74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="68">
+        <v>43132</v>
+      </c>
+      <c r="B15" s="72">
+        <v>359</v>
+      </c>
+      <c r="C15" s="76">
+        <v>171</v>
+      </c>
+      <c r="D15" s="70">
+        <v>11</v>
+      </c>
+      <c r="E15" s="73">
+        <v>2</v>
+      </c>
+      <c r="F15" s="72">
+        <v>110</v>
+      </c>
+      <c r="G15" s="70">
+        <v>64</v>
+      </c>
+      <c r="H15" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="68">
+        <v>43160</v>
+      </c>
+      <c r="B16" s="72">
+        <v>510</v>
+      </c>
+      <c r="C16" s="70">
+        <v>224</v>
+      </c>
+      <c r="D16" s="73">
+        <v>19</v>
+      </c>
+      <c r="E16" s="73">
+        <v>1</v>
+      </c>
+      <c r="F16" s="70">
+        <v>192</v>
+      </c>
+      <c r="G16" s="73">
+        <v>68</v>
+      </c>
+      <c r="H16" s="74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="68">
+        <v>43191</v>
+      </c>
+      <c r="B17" s="72">
+        <v>550</v>
+      </c>
+      <c r="C17" s="72">
+        <v>229</v>
+      </c>
+      <c r="D17" s="70">
+        <v>21</v>
+      </c>
+      <c r="E17" s="77"/>
+      <c r="F17" s="72">
+        <v>210</v>
+      </c>
+      <c r="G17" s="70">
+        <v>82</v>
+      </c>
+      <c r="H17" s="74">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="68">
+        <v>43221</v>
+      </c>
+      <c r="B18" s="72">
+        <v>556</v>
+      </c>
+      <c r="C18" s="72">
+        <v>202</v>
+      </c>
+      <c r="D18" s="70">
+        <v>30</v>
+      </c>
+      <c r="E18" s="73">
+        <v>1</v>
+      </c>
+      <c r="F18" s="72">
+        <v>217</v>
+      </c>
+      <c r="G18" s="72">
+        <v>102</v>
+      </c>
+      <c r="H18" s="74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="68">
+        <v>43252</v>
+      </c>
+      <c r="B19" s="72">
+        <v>474</v>
+      </c>
+      <c r="C19" s="72">
+        <v>223</v>
+      </c>
+      <c r="D19" s="70">
+        <v>14</v>
+      </c>
+      <c r="E19" s="77"/>
+      <c r="F19" s="72">
+        <v>172</v>
+      </c>
+      <c r="G19" s="70">
+        <v>65</v>
+      </c>
+      <c r="H19" s="78"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="68">
+        <v>43282</v>
+      </c>
+      <c r="B20" s="72">
+        <v>524</v>
+      </c>
+      <c r="C20" s="72">
+        <v>197</v>
+      </c>
+      <c r="D20" s="70">
+        <v>14</v>
+      </c>
+      <c r="E20" s="73">
+        <v>5</v>
+      </c>
+      <c r="F20" s="72">
+        <v>214</v>
+      </c>
+      <c r="G20" s="70">
+        <v>92</v>
+      </c>
+      <c r="H20" s="74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="68">
+        <v>43313</v>
+      </c>
+      <c r="B21" s="72">
+        <v>552</v>
+      </c>
+      <c r="C21" s="70">
+        <v>203</v>
+      </c>
+      <c r="D21" s="73">
+        <v>19</v>
+      </c>
+      <c r="E21" s="73">
+        <v>3</v>
+      </c>
+      <c r="F21" s="70">
+        <v>233</v>
+      </c>
+      <c r="G21" s="73">
+        <v>93</v>
+      </c>
+      <c r="H21" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="68">
+        <v>43344</v>
+      </c>
+      <c r="B22" s="72">
+        <v>466</v>
+      </c>
+      <c r="C22" s="72">
+        <v>193</v>
+      </c>
+      <c r="D22" s="70">
+        <v>14</v>
+      </c>
+      <c r="E22" s="73">
+        <v>1</v>
+      </c>
+      <c r="F22" s="72">
+        <v>184</v>
+      </c>
+      <c r="G22" s="70">
+        <v>73</v>
+      </c>
+      <c r="H22" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="68">
+        <v>43374</v>
+      </c>
+      <c r="B23" s="72">
+        <v>559</v>
+      </c>
+      <c r="C23" s="70">
+        <v>251</v>
+      </c>
+      <c r="D23" s="73">
+        <v>23</v>
+      </c>
+      <c r="E23" s="73">
+        <v>1</v>
+      </c>
+      <c r="F23" s="70">
+        <v>197</v>
+      </c>
+      <c r="G23" s="73">
+        <v>84</v>
+      </c>
+      <c r="H23" s="74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="68">
+        <v>43405</v>
+      </c>
+      <c r="B24" s="72">
+        <v>465</v>
+      </c>
+      <c r="C24" s="72">
+        <v>194</v>
+      </c>
+      <c r="D24" s="70">
+        <v>28</v>
+      </c>
+      <c r="E24" s="73">
+        <v>3</v>
+      </c>
+      <c r="F24" s="72">
+        <v>151</v>
+      </c>
+      <c r="G24" s="70">
+        <v>86</v>
+      </c>
+      <c r="H24" s="74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="68">
+        <v>43435</v>
+      </c>
+      <c r="B25" s="72">
+        <v>388</v>
+      </c>
+      <c r="C25" s="72">
+        <v>166</v>
+      </c>
+      <c r="D25" s="70">
+        <v>12</v>
+      </c>
+      <c r="E25" s="73">
+        <v>2</v>
+      </c>
+      <c r="F25" s="72">
+        <v>146</v>
+      </c>
+      <c r="G25" s="70">
+        <v>60</v>
+      </c>
+      <c r="H25" s="74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="68">
+        <v>43466</v>
+      </c>
+      <c r="B26" s="79">
+        <v>507</v>
+      </c>
+      <c r="C26" s="79">
+        <v>230</v>
+      </c>
+      <c r="D26" s="80">
+        <v>19</v>
+      </c>
+      <c r="E26" s="81">
+        <v>5</v>
+      </c>
+      <c r="F26" s="79">
+        <v>189</v>
+      </c>
+      <c r="G26" s="80">
+        <v>60</v>
+      </c>
+      <c r="H26" s="82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="68">
+        <v>43497</v>
+      </c>
+      <c r="B27" s="79">
+        <v>488</v>
+      </c>
+      <c r="C27" s="79">
+        <v>198</v>
+      </c>
+      <c r="D27" s="80">
+        <v>25</v>
+      </c>
+      <c r="E27" s="81">
+        <v>5</v>
+      </c>
+      <c r="F27" s="79">
+        <v>173</v>
+      </c>
+      <c r="G27" s="80">
+        <v>84</v>
+      </c>
+      <c r="H27" s="82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="68">
+        <v>43525</v>
+      </c>
+      <c r="B28" s="79">
+        <v>470</v>
+      </c>
+      <c r="C28" s="79">
+        <v>204</v>
+      </c>
+      <c r="D28" s="80">
+        <v>21</v>
+      </c>
+      <c r="E28" s="81">
+        <v>1</v>
+      </c>
+      <c r="F28" s="79">
+        <v>169</v>
+      </c>
+      <c r="G28" s="80">
+        <v>71</v>
+      </c>
+      <c r="H28" s="82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="68">
+        <v>43556</v>
+      </c>
+      <c r="B29" s="79">
+        <v>512</v>
+      </c>
+      <c r="C29" s="79">
+        <v>206</v>
+      </c>
+      <c r="D29" s="80">
+        <v>22</v>
+      </c>
+      <c r="E29" s="81">
+        <v>4</v>
+      </c>
+      <c r="F29" s="79">
+        <v>196</v>
+      </c>
+      <c r="G29" s="80">
+        <v>81</v>
+      </c>
+      <c r="H29" s="82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="68">
+        <v>43586</v>
+      </c>
+      <c r="B30" s="79">
+        <v>553</v>
+      </c>
+      <c r="C30" s="79">
+        <v>212</v>
+      </c>
+      <c r="D30" s="80">
+        <v>31</v>
+      </c>
+      <c r="E30" s="81">
+        <v>4</v>
+      </c>
+      <c r="F30" s="79">
+        <v>210</v>
+      </c>
+      <c r="G30" s="80">
+        <v>93</v>
+      </c>
+      <c r="H30" s="82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="68">
+        <v>43617</v>
+      </c>
+      <c r="B31" s="79">
+        <v>528</v>
+      </c>
+      <c r="C31" s="79">
+        <v>213</v>
+      </c>
+      <c r="D31" s="80">
+        <v>24</v>
+      </c>
+      <c r="E31" s="81">
+        <v>1</v>
+      </c>
+      <c r="F31" s="79">
+        <v>186</v>
+      </c>
+      <c r="G31" s="79">
+        <v>101</v>
+      </c>
+      <c r="H31" s="82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="68">
+        <v>43647</v>
+      </c>
+      <c r="B32" s="79">
+        <v>626</v>
+      </c>
+      <c r="C32" s="79">
+        <v>259</v>
+      </c>
+      <c r="D32" s="80">
+        <v>39</v>
+      </c>
+      <c r="E32" s="81">
+        <v>1</v>
+      </c>
+      <c r="F32" s="79">
+        <v>212</v>
+      </c>
+      <c r="G32" s="79">
+        <v>109</v>
+      </c>
+      <c r="H32" s="82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="68">
+        <v>43678</v>
+      </c>
+      <c r="B33" s="79">
+        <v>602</v>
+      </c>
+      <c r="C33" s="79">
+        <v>225</v>
+      </c>
+      <c r="D33" s="80">
+        <v>20</v>
+      </c>
+      <c r="E33" s="77"/>
+      <c r="F33" s="79">
+        <v>252</v>
+      </c>
+      <c r="G33" s="79">
+        <v>102</v>
+      </c>
+      <c r="H33" s="82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="68">
+        <v>43709</v>
+      </c>
+      <c r="B34" s="79">
+        <v>568</v>
+      </c>
+      <c r="C34" s="79">
+        <v>232</v>
+      </c>
+      <c r="D34" s="80">
+        <v>20</v>
+      </c>
+      <c r="E34" s="81">
+        <v>1</v>
+      </c>
+      <c r="F34" s="79">
+        <v>230</v>
+      </c>
+      <c r="G34" s="80">
+        <v>81</v>
+      </c>
+      <c r="H34" s="82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="68">
+        <v>43739</v>
+      </c>
+      <c r="B35" s="79">
+        <v>683</v>
+      </c>
+      <c r="C35" s="79">
+        <v>267</v>
+      </c>
+      <c r="D35" s="80">
+        <v>31</v>
+      </c>
+      <c r="E35" s="81">
+        <v>2</v>
+      </c>
+      <c r="F35" s="79">
+        <v>251</v>
+      </c>
+      <c r="G35" s="79">
+        <v>129</v>
+      </c>
+      <c r="H35" s="82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="68">
+        <v>43770</v>
+      </c>
+      <c r="B36" s="79">
+        <v>537</v>
+      </c>
+      <c r="C36" s="79">
+        <v>212</v>
+      </c>
+      <c r="D36" s="80">
+        <v>35</v>
+      </c>
+      <c r="E36" s="77">
+        <v>0</v>
+      </c>
+      <c r="F36" s="79">
+        <v>181</v>
+      </c>
+      <c r="G36" s="79">
+        <v>107</v>
+      </c>
+      <c r="H36" s="82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="68">
+        <v>43800</v>
+      </c>
+      <c r="B37" s="79">
+        <v>526</v>
+      </c>
+      <c r="C37" s="79">
+        <v>202</v>
+      </c>
+      <c r="D37" s="80">
+        <v>24</v>
+      </c>
+      <c r="E37" s="81">
+        <v>1</v>
+      </c>
+      <c r="F37" s="79">
+        <v>212</v>
+      </c>
+      <c r="G37" s="80">
+        <v>82</v>
+      </c>
+      <c r="H37" s="82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="68">
+        <v>43831</v>
+      </c>
+      <c r="B38" s="79">
+        <v>564</v>
+      </c>
+      <c r="C38" s="79">
+        <v>210</v>
+      </c>
+      <c r="D38" s="80">
+        <v>19</v>
+      </c>
+      <c r="E38" s="81">
+        <v>2</v>
+      </c>
+      <c r="F38" s="79">
+        <v>236</v>
+      </c>
+      <c r="G38" s="80">
+        <v>94</v>
+      </c>
+      <c r="H38" s="82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="68">
+        <v>43862</v>
+      </c>
+      <c r="B39" s="79">
+        <v>481</v>
+      </c>
+      <c r="C39" s="79">
+        <v>189</v>
+      </c>
+      <c r="D39" s="81">
+        <v>19</v>
+      </c>
+      <c r="E39" s="77"/>
+      <c r="F39" s="79">
+        <v>174</v>
+      </c>
+      <c r="G39" s="81">
+        <v>95</v>
+      </c>
+      <c r="H39" s="82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="68">
+        <v>43891</v>
+      </c>
+      <c r="B40" s="79">
+        <v>358</v>
+      </c>
+      <c r="C40" s="79">
+        <v>153</v>
+      </c>
+      <c r="D40" s="81">
+        <v>13</v>
+      </c>
+      <c r="E40" s="81">
+        <v>1</v>
+      </c>
+      <c r="F40" s="79">
+        <v>131</v>
+      </c>
+      <c r="G40" s="81">
+        <v>59</v>
+      </c>
+      <c r="H40" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="68">
+        <v>43922</v>
+      </c>
+      <c r="B41" s="79">
+        <v>140</v>
+      </c>
+      <c r="C41" s="81">
+        <v>53</v>
+      </c>
+      <c r="D41" s="81">
+        <v>4</v>
+      </c>
+      <c r="E41" s="81">
+        <v>1</v>
+      </c>
+      <c r="F41" s="81">
+        <v>50</v>
+      </c>
+      <c r="G41" s="81">
+        <v>32</v>
+      </c>
+      <c r="H41" s="78"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="68">
+        <v>43952</v>
+      </c>
+      <c r="B42" s="79">
+        <v>283</v>
+      </c>
+      <c r="C42" s="79">
+        <v>115</v>
+      </c>
+      <c r="D42" s="81">
+        <v>11</v>
+      </c>
+      <c r="E42" s="77"/>
+      <c r="F42" s="79">
+        <v>103</v>
+      </c>
+      <c r="G42" s="81">
+        <v>52</v>
+      </c>
+      <c r="H42" s="82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="68">
+        <v>43983</v>
+      </c>
+      <c r="B43" s="79">
+        <v>424</v>
+      </c>
+      <c r="C43" s="79">
+        <v>150</v>
+      </c>
+      <c r="D43" s="81">
+        <v>14</v>
+      </c>
+      <c r="E43" s="81">
+        <v>2</v>
+      </c>
+      <c r="F43" s="79">
+        <v>182</v>
+      </c>
+      <c r="G43" s="81">
+        <v>73</v>
+      </c>
+      <c r="H43" s="82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="68">
+        <v>44013</v>
+      </c>
+      <c r="B44" s="79">
+        <v>477</v>
+      </c>
+      <c r="C44" s="79">
+        <v>176</v>
+      </c>
+      <c r="D44" s="81">
+        <v>18</v>
+      </c>
+      <c r="E44" s="81">
+        <v>3</v>
+      </c>
+      <c r="F44" s="79">
+        <v>197</v>
+      </c>
+      <c r="G44" s="81">
+        <v>82</v>
+      </c>
+      <c r="H44" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="83">
+        <v>44044</v>
+      </c>
+      <c r="B45" s="84">
+        <v>438</v>
+      </c>
+      <c r="C45" s="85">
+        <v>223</v>
+      </c>
+      <c r="D45" s="86">
+        <v>21</v>
+      </c>
+      <c r="E45" s="87">
+        <v>1</v>
+      </c>
+      <c r="F45" s="85">
+        <v>112</v>
+      </c>
+      <c r="G45" s="86">
+        <v>79</v>
+      </c>
+      <c r="H45" s="88">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
